--- a/database/FileExcel/Ongkir.xlsx
+++ b/database/FileExcel/Ongkir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dewaw\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E2AEE2-F52E-41CD-A1A2-8FF0AD55848D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF35CFF-983E-4513-9004-1F29E1707436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="900" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,111 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>aceh</t>
+  </si>
+  <si>
+    <t>riau</t>
+  </si>
+  <si>
+    <t>kep.riau</t>
+  </si>
+  <si>
+    <t>bengkulu</t>
+  </si>
+  <si>
+    <t>jambi</t>
+  </si>
+  <si>
+    <t>kep.bangka</t>
+  </si>
+  <si>
+    <t>lampung</t>
+  </si>
+  <si>
+    <t>banten</t>
+  </si>
+  <si>
+    <t>diy</t>
+  </si>
+  <si>
+    <t>bali</t>
+  </si>
+  <si>
+    <t>ntb</t>
+  </si>
+  <si>
+    <t>ntt</t>
+  </si>
+  <si>
+    <t>gorontalo</t>
+  </si>
+  <si>
+    <t>maluku</t>
+  </si>
+  <si>
+    <t>papua</t>
+  </si>
+  <si>
+    <t>sumatra-utara</t>
+  </si>
+  <si>
+    <t>sumatra-barat</t>
+  </si>
+  <si>
+    <t>sumatra-selatan</t>
+  </si>
+  <si>
+    <t>dki-Jakarta</t>
+  </si>
+  <si>
+    <t>jawa-barat</t>
+  </si>
+  <si>
+    <t>jawa-tengah</t>
+  </si>
+  <si>
+    <t>jawa-timur</t>
+  </si>
+  <si>
+    <t>kalimantan-barat</t>
+  </si>
+  <si>
+    <t>kalimantan-utara</t>
+  </si>
+  <si>
+    <t>kalimantan</t>
+  </si>
+  <si>
+    <t>kalimantan-timur</t>
+  </si>
+  <si>
+    <t>kalimantan-selatan</t>
+  </si>
+  <si>
+    <t>sulawesi-barat</t>
+  </si>
+  <si>
+    <t>sulawesi-selatan</t>
+  </si>
+  <si>
+    <t>sulawesi-tengah</t>
+  </si>
+  <si>
+    <t>sulawesi-tenggara</t>
+  </si>
+  <si>
+    <t>sulawesi-utara</t>
+  </si>
+  <si>
+    <t>maluku-utara</t>
+  </si>
+  <si>
+    <t>papua-barat</t>
   </si>
 </sst>
 </file>
@@ -520,15 +625,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,16 +647,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -558,14 +669,17 @@
       <c r="C2">
         <v>50000</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="M2" s="2"/>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -575,12 +689,15 @@
       <c r="C3">
         <v>50000</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -590,11 +707,14 @@
       <c r="C4">
         <v>50000</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -604,11 +724,14 @@
       <c r="C5">
         <v>45000</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -618,11 +741,14 @@
       <c r="C6">
         <v>48000</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -632,11 +758,14 @@
       <c r="C7">
         <v>60000</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -646,11 +775,14 @@
       <c r="C8">
         <v>60000</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -660,11 +792,14 @@
       <c r="C9">
         <v>60000</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -674,11 +809,14 @@
       <c r="C10">
         <v>60000</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -688,11 +826,14 @@
       <c r="C11">
         <v>45000</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -702,11 +843,14 @@
       <c r="C12">
         <v>38000</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -716,11 +860,14 @@
       <c r="C13">
         <v>18000</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -730,11 +877,14 @@
       <c r="C14">
         <v>18000</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -744,11 +894,14 @@
       <c r="C15">
         <v>18000</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -758,11 +911,14 @@
       <c r="C16">
         <v>12000</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -772,11 +928,14 @@
       <c r="C17">
         <v>18000</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -786,11 +945,14 @@
       <c r="C18">
         <v>21000</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -800,11 +962,14 @@
       <c r="C19">
         <v>48000</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -814,11 +979,14 @@
       <c r="C20">
         <v>58000</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -828,11 +996,14 @@
       <c r="C21">
         <v>65000</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -842,11 +1013,14 @@
       <c r="C22">
         <v>65000</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -856,11 +1030,14 @@
       <c r="C23">
         <v>65000</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -870,11 +1047,14 @@
       <c r="C24">
         <v>65000</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -884,11 +1064,14 @@
       <c r="C25">
         <v>65000</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -898,11 +1081,14 @@
       <c r="C26">
         <v>55000</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -912,11 +1098,14 @@
       <c r="C27">
         <v>55000</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -926,11 +1115,14 @@
       <c r="C28">
         <v>55000</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -940,11 +1132,14 @@
       <c r="C29">
         <v>55000</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -954,11 +1149,14 @@
       <c r="C30">
         <v>55000</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -968,11 +1166,14 @@
       <c r="C31">
         <v>60000</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -982,11 +1183,14 @@
       <c r="C32">
         <v>65000</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -996,11 +1200,14 @@
       <c r="C33">
         <v>65000</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1010,11 +1217,14 @@
       <c r="C34">
         <v>75000</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1024,7 +1234,10 @@
       <c r="C35">
         <v>75000</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35">
         <v>1</v>
       </c>
     </row>
